--- a/swa_projekt.xlsx
+++ b/swa_projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\swaprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\swaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867301B-FD4D-4CE1-82ED-FA6171AA7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A24AB8-C97F-4276-8A74-534BD01F77CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="0" windowWidth="18900" windowHeight="11055" xr2:uid="{2BD2C29B-C002-422D-BCA8-8C92077ADB6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BD2C29B-C002-422D-BCA8-8C92077ADB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>vedoucí</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Druhá fáze</t>
   </si>
   <si>
-    <t>Tvorba UI</t>
-  </si>
-  <si>
     <t>Tvorba grafiky</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Nedokončen</t>
   </si>
   <si>
-    <t>10.4.</t>
-  </si>
-  <si>
     <t>2.5.</t>
   </si>
   <si>
@@ -165,6 +159,9 @@
   </si>
   <si>
     <t>5.11.</t>
+  </si>
+  <si>
+    <t>Tvorba UI (wireframes)</t>
   </si>
 </sst>
 </file>
@@ -455,72 +452,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázek 1" descr="Karel Vyšinka (@Scherry1610) / X">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B514C4B-32A5-174D-10E4-35F8C8292931}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5324475" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,37 +754,37 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -870,211 +801,211 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1082,6 +1013,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>